--- a/relatorios/repasses_liberados/dentistas/13392242403/2023-08-25_relatorio_repasses_13392242403.xlsx
+++ b/relatorios/repasses_liberados/dentistas/13392242403/2023-08-25_relatorio_repasses_13392242403.xlsx
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -12807,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N270">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N288">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -14127,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N342">
         <v>0</v>
@@ -16019,7 +16019,7 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N343">
         <v>0</v>
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N344">
         <v>0</v>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -16151,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
       <c r="M357">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N357">
         <v>0</v>
@@ -16855,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N362">
         <v>0</v>
@@ -16899,7 +16899,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N364">
         <v>0</v>
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N370">
         <v>0</v>
@@ -17251,7 +17251,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -18659,7 +18659,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -18703,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N404">
         <v>0</v>
@@ -19143,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19187,7 +19187,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N415">
         <v>0</v>
@@ -19891,7 +19891,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20463,7 +20463,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N444">
         <v>0</v>
@@ -21035,7 +21035,7 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N457">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/13392242403/2023-08-25_relatorio_repasses_13392242403.xlsx
+++ b/relatorios/repasses_liberados/dentistas/13392242403/2023-08-25_relatorio_repasses_13392242403.xlsx
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N13">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N14">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1631,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N16">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N23">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2379,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N34">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N37">
-        <v>9.576000000000001</v>
+        <v>12.768</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N38">
-        <v>5.856</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N39">
-        <v>5.856</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N40">
-        <v>5.856</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N41">
-        <v>5.856</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2907,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N45">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N46">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N55">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N56">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N57">
-        <v>0.534</v>
+        <v>0.7120000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3699,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N64">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4007,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N70">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4051,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N71">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4359,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5371,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N101">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5547,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N105">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5723,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N109">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5987,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N115">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6163,10 +6163,10 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N119">
-        <v>7.244999999999999</v>
+        <v>12.075</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8099,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -11839,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N248">
         <v>0</v>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N249">
         <v>0</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N265">
         <v>0</v>
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N266">
         <v>0</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="M267">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N267">
         <v>0</v>
@@ -12807,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N270">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N272">
         <v>0</v>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N278">
         <v>0</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N280">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N288">
         <v>0</v>
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N289">
         <v>0</v>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N290">
         <v>0</v>
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N291">
         <v>0</v>
@@ -13863,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -14127,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14347,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -14875,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N317">
         <v>0</v>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N320">
         <v>0</v>
@@ -15403,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -15491,7 +15491,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -15579,7 +15579,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -15667,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N335">
         <v>0</v>
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N336">
         <v>0</v>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N338">
         <v>0</v>
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N342">
         <v>0</v>
@@ -16019,7 +16019,7 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N343">
         <v>0</v>
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N344">
         <v>0</v>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -16151,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16195,7 +16195,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N349">
         <v>0</v>
@@ -16371,7 +16371,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="M358">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N358">
         <v>0</v>
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N364">
         <v>0</v>
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N370">
         <v>0</v>
@@ -17647,7 +17647,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N391">
         <v>0</v>
@@ -18175,7 +18175,7 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N392">
         <v>0</v>
@@ -18307,7 +18307,7 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N395">
         <v>0</v>
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -18703,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N404">
         <v>0</v>
@@ -19143,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N430">
         <v>0</v>
@@ -19891,7 +19891,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N434">
         <v>0</v>
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="M441">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N441">
         <v>0</v>
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N443">
         <v>0</v>
@@ -20463,7 +20463,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N444">
         <v>0</v>
@@ -20507,7 +20507,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N445">
         <v>0</v>
@@ -20727,7 +20727,7 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N450">
         <v>0</v>
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N451">
         <v>0</v>
@@ -20815,7 +20815,7 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N452">
         <v>0</v>
@@ -20859,7 +20859,7 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N453">
         <v>0</v>
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="M454">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N454">
         <v>0</v>
